--- a/classfiers/bloated/welm/smote/bloated_welm_lin_smote_results.xlsx
+++ b/classfiers/bloated/welm/smote/bloated_welm_lin_smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9795454545454545</v>
+        <v>0.9527363184079602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9903381642512077</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9785202863961814</v>
+        <v>0.9537712895377128</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971595032240675</v>
+        <v>0.9932412358882947</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9590909090909091</v>
+        <v>0.9600997506234414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9865470852017937</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9606986899563319</v>
+        <v>0.9591836734693877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9945031100824533</v>
+        <v>0.9962121212121212</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.95</v>
+        <v>0.9301745635910225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953917050691244</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9515418502202643</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9928292451075614</v>
+        <v>0.9898725987857071</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.958997722095672</v>
+        <v>0.9625935162094763</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9867256637168141</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9612068965517242</v>
+        <v>0.9624060150375939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9937886908471478</v>
+        <v>0.9943026322336668</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9521640091116174</v>
+        <v>0.970074812967581</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9911504424778761</v>
+        <v>0.981651376146789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9552238805970149</v>
+        <v>0.9727272727272728</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9880344010968465</v>
+        <v>0.9952373790544944</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9599596189687306</v>
+        <v>0.9551357923598962</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9900306121433632</v>
+        <v>0.983067572055487</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9614383207443034</v>
+        <v>0.9562843168210602</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9932629900716152</v>
+        <v>0.9937731934348569</v>
       </c>
     </row>
   </sheetData>
